--- a/rids.xlsx
+++ b/rids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-rid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B087EA-4285-411F-8505-7DDBD12C97DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4CFB1-A150-4F27-BBD5-21FBC02F5D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="Q35" sqref="Q35:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/rids.xlsx
+++ b/rids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-rid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4CFB1-A150-4F27-BBD5-21FBC02F5D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC877EC4-1CCF-4D29-A00A-BB3EEBACEB91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35:R35"/>
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,6 +941,7 @@
     <col min="13" max="13" width="2.7265625" customWidth="1"/>
     <col min="14" max="14" width="8.7265625" customWidth="1"/>
     <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1044,7 +1045,7 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="23">
         <v>685.23646008640594</v>
       </c>
     </row>
@@ -1095,7 +1096,7 @@
       <c r="Q6" s="3">
         <v>1000</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="23">
         <v>1259.2978106741325</v>
       </c>
     </row>
@@ -1138,7 +1139,7 @@
       <c r="Q7" s="3">
         <v>1500</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="23">
         <v>1871.6732435999043</v>
       </c>
     </row>
@@ -1189,7 +1190,7 @@
       <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="23">
         <v>2815.422909869797</v>
       </c>
     </row>
@@ -1232,7 +1233,7 @@
       <c r="Q9" s="3">
         <v>3300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="23">
         <v>4060.6442006114239</v>
       </c>
     </row>
@@ -1283,7 +1284,7 @@
       <c r="Q10" s="3">
         <v>4700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="23">
         <v>5007.8360248450799</v>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       <c r="Q11" s="3">
         <v>5600</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="23">
         <v>6066.491407791038</v>
       </c>
     </row>
@@ -1377,7 +1378,7 @@
       <c r="Q12" s="3">
         <v>6800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="23">
         <v>7332.8697462109321</v>
       </c>
     </row>
@@ -1420,7 +1421,7 @@
       <c r="Q13" s="3">
         <v>8200</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="23">
         <v>8930.763873817019</v>
       </c>
     </row>
@@ -1471,7 +1472,7 @@
       <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="23">
         <v>10757.547785526249</v>
       </c>
     </row>
@@ -1522,7 +1523,7 @@
       <c r="Q15" s="3">
         <v>12000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="23">
         <v>13348.183903720461</v>
       </c>
     </row>
@@ -1573,7 +1574,7 @@
       <c r="Q16" s="3">
         <v>15000</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="23">
         <v>16151.90067355656</v>
       </c>
     </row>
@@ -1624,7 +1625,7 @@
       <c r="Q17" s="3">
         <v>18000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="23">
         <v>19675.378577762247</v>
       </c>
     </row>
@@ -1675,7 +1676,7 @@
       <c r="Q18" s="3">
         <v>22000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="23">
         <v>24131.245905036554</v>
       </c>
     </row>
@@ -1726,7 +1727,7 @@
       <c r="Q19" s="3">
         <v>27000</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="23">
         <v>29519.529890767029</v>
       </c>
     </row>
@@ -1777,7 +1778,7 @@
       <c r="Q20" s="3">
         <v>33000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="23">
         <v>35121.328844124095</v>
       </c>
     </row>
@@ -1828,7 +1829,7 @@
       <c r="Q21" s="3">
         <v>39000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="23">
         <v>42156.601554598208</v>
       </c>
     </row>
@@ -1879,7 +1880,7 @@
       <c r="Q22" s="3">
         <v>47000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="23">
         <v>50336.199900242318</v>
       </c>
     </row>
@@ -1930,7 +1931,7 @@
       <c r="Q23" s="3">
         <v>56000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="23">
         <v>60872.38880949279</v>
       </c>
     </row>
@@ -1981,7 +1982,7 @@
       <c r="Q24" s="3">
         <v>68000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="23">
         <v>73481.638335108626</v>
       </c>
     </row>
@@ -2032,7 +2033,7 @@
       <c r="Q25" s="3">
         <v>82000</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="23">
         <v>89361.283690993354</v>
       </c>
     </row>
@@ -2083,7 +2084,7 @@
       <c r="Q26" s="3">
         <v>100000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="23">
         <v>107524.32124403358</v>
       </c>
     </row>
@@ -2134,7 +2135,7 @@
       <c r="Q27" s="3">
         <v>120000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="23">
         <v>133157.43740246791</v>
       </c>
     </row>
@@ -2185,7 +2186,7 @@
       <c r="Q28" s="3">
         <v>150000</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="23">
         <v>160992.45247626147</v>
       </c>
     </row>
@@ -2236,7 +2237,7 @@
       <c r="Q29" s="3">
         <v>180000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="23">
         <v>195782.89084646633</v>
       </c>
     </row>
@@ -2287,7 +2288,7 @@
       <c r="Q30" s="3">
         <v>220000</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="23">
         <v>239697.59388508165</v>
       </c>
     </row>
@@ -2338,7 +2339,7 @@
       <c r="Q31" s="3">
         <v>270000</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="23">
         <v>292662.62817106448</v>
       </c>
     </row>
@@ -2389,7 +2390,7 @@
       <c r="Q32" s="3">
         <v>330000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="23">
         <v>401391.45114954695</v>
       </c>
     </row>
@@ -2440,7 +2441,7 @@
       <c r="Q33" s="3">
         <v>470000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="23">
         <v>574870.38618262182</v>
       </c>
     </row>
@@ -2491,7 +2492,7 @@
       <c r="Q34" s="3">
         <v>680000</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="23">
         <v>834047.7599130437</v>
       </c>
     </row>
@@ -2543,7 +2544,7 @@
       <c r="Q35" s="3">
         <v>1000000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="23">
         <v>1394768.1263387096</v>
       </c>
     </row>
